--- a/Mysql/주문서/주문서테이블명세-양식.xlsx
+++ b/Mysql/주문서/주문서테이블명세-양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505301\Documents\workspace\DBMS\Mysql\주문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25EB688-7B79-408F-A462-C0E2CF24281D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E27EAD8-903D-4A19-9640-EE27C8F928D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1815" windowWidth="14505" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="주문원장명세" sheetId="5" r:id="rId1"/>
@@ -837,6 +837,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -860,12 +866,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1211,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F846A92-663F-4F97-B620-E205967B2A16}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1870,18 +1870,18 @@
       <c r="C2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="30" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -1893,34 +1893,34 @@
       <c r="C3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="33" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3045,18 +3045,18 @@
       <c r="C2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="30" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3068,34 +3068,34 @@
       <c r="C3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="33" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -4228,18 +4228,18 @@
       <c r="C2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="30" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -4251,34 +4251,34 @@
       <c r="C3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="33" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -4746,7 +4746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -5405,18 +5405,18 @@
       <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="30" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -5428,34 +5428,34 @@
       <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="33" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
